--- a/data/nzd0185/nzd0185.xlsx
+++ b/data/nzd0185/nzd0185.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I517"/>
+  <dimension ref="A1:I526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15886,6 +15886,295 @@
       <c r="I517" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>358.3255555555555</v>
+      </c>
+      <c r="C518" t="n">
+        <v>357.1126315789473</v>
+      </c>
+      <c r="D518" t="n">
+        <v>345.1666666666667</v>
+      </c>
+      <c r="E518" t="n">
+        <v>342.085</v>
+      </c>
+      <c r="F518" t="n">
+        <v>328.9157142857143</v>
+      </c>
+      <c r="G518" t="n">
+        <v>324.2692307692308</v>
+      </c>
+      <c r="H518" t="n">
+        <v>303.45</v>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>354.4122222222222</v>
+      </c>
+      <c r="C519" t="n">
+        <v>364.7015789473684</v>
+      </c>
+      <c r="D519" t="n">
+        <v>356.5866666666667</v>
+      </c>
+      <c r="E519" t="n">
+        <v>349.47</v>
+      </c>
+      <c r="F519" t="n">
+        <v>338.5342857142857</v>
+      </c>
+      <c r="G519" t="n">
+        <v>326.7553846153846</v>
+      </c>
+      <c r="H519" t="n">
+        <v>309.8</v>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 21:59:59+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>378.4144444444445</v>
+      </c>
+      <c r="C520" t="n">
+        <v>370.6694736842105</v>
+      </c>
+      <c r="D520" t="n">
+        <v>364.8233333333333</v>
+      </c>
+      <c r="E520" t="n">
+        <v>351.35</v>
+      </c>
+      <c r="F520" t="n">
+        <v>345.8414285714285</v>
+      </c>
+      <c r="G520" t="n">
+        <v>341.9846153846154</v>
+      </c>
+      <c r="H520" t="n">
+        <v>321.95</v>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>344.5311111111111</v>
+      </c>
+      <c r="C521" t="n">
+        <v>357.4647368421053</v>
+      </c>
+      <c r="D521" t="n">
+        <v>341.3533333333333</v>
+      </c>
+      <c r="E521" t="n">
+        <v>340.09</v>
+      </c>
+      <c r="F521" t="n">
+        <v>326.3342857142857</v>
+      </c>
+      <c r="G521" t="n">
+        <v>316.8169230769231</v>
+      </c>
+      <c r="H521" t="n">
+        <v>292.49</v>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>370.4788888888889</v>
+      </c>
+      <c r="C522" t="n">
+        <v>363.2157894736842</v>
+      </c>
+      <c r="D522" t="n">
+        <v>355.7166666666667</v>
+      </c>
+      <c r="E522" t="n">
+        <v>350.94</v>
+      </c>
+      <c r="F522" t="n">
+        <v>341.0528571428572</v>
+      </c>
+      <c r="G522" t="n">
+        <v>335.9146153846153</v>
+      </c>
+      <c r="H522" t="n">
+        <v>316.33</v>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>343.6355555555555</v>
+      </c>
+      <c r="C523" t="n">
+        <v>357.3547368421052</v>
+      </c>
+      <c r="D523" t="n">
+        <v>343.2066666666667</v>
+      </c>
+      <c r="E523" t="n">
+        <v>339.96</v>
+      </c>
+      <c r="F523" t="n">
+        <v>326.4728571428572</v>
+      </c>
+      <c r="G523" t="n">
+        <v>315.4030769230769</v>
+      </c>
+      <c r="H523" t="n">
+        <v>296.49</v>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>375.3877777777778</v>
+      </c>
+      <c r="C524" t="n">
+        <v>366.4415789473685</v>
+      </c>
+      <c r="D524" t="n">
+        <v>360.2233333333333</v>
+      </c>
+      <c r="E524" t="n">
+        <v>354.57</v>
+      </c>
+      <c r="F524" t="n">
+        <v>341.5357142857143</v>
+      </c>
+      <c r="G524" t="n">
+        <v>336.6692307692308</v>
+      </c>
+      <c r="H524" t="n">
+        <v>310.07</v>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-15 21:59:56+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr"/>
+      <c r="C525" t="inlineStr"/>
+      <c r="D525" t="inlineStr"/>
+      <c r="E525" t="inlineStr"/>
+      <c r="F525" t="n">
+        <v>345.5028571428572</v>
+      </c>
+      <c r="G525" t="n">
+        <v>338.2861538461539</v>
+      </c>
+      <c r="H525" t="n">
+        <v>319.25</v>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-31 21:59:55+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>370.1577777777778</v>
+      </c>
+      <c r="C526" t="n">
+        <v>345.861052631579</v>
+      </c>
+      <c r="D526" t="n">
+        <v>348.7933333333333</v>
+      </c>
+      <c r="E526" t="n">
+        <v>336.43</v>
+      </c>
+      <c r="F526" t="n">
+        <v>331.9585714285714</v>
+      </c>
+      <c r="G526" t="n">
+        <v>324.1776923076923</v>
+      </c>
+      <c r="H526" t="n">
+        <v>299.71</v>
+      </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -15900,7 +16189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B614"/>
+  <dimension ref="A1:B626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22048,6 +22337,126 @@
       </c>
       <c r="B614" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2025-01-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2025-01-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -22216,28 +22625,28 @@
         <v>0.0527</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.162354066455789</v>
+        <v>-0.1367730865029934</v>
       </c>
       <c r="J2" t="n">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K2" t="n">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008965539029679892</v>
+        <v>0.006459611008670207</v>
       </c>
       <c r="M2" t="n">
-        <v>9.819296815724567</v>
+        <v>9.878118857400386</v>
       </c>
       <c r="N2" t="n">
-        <v>155.7172576596019</v>
+        <v>156.7470305109158</v>
       </c>
       <c r="O2" t="n">
-        <v>12.4786721112305</v>
+        <v>12.5198654350163</v>
       </c>
       <c r="P2" t="n">
-        <v>359.0396293756123</v>
+        <v>358.7916132170394</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -22293,28 +22702,28 @@
         <v>0.1185</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2026413613261873</v>
+        <v>0.2339188974500502</v>
       </c>
       <c r="J3" t="n">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K3" t="n">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0146031808674888</v>
+        <v>0.01988757366394844</v>
       </c>
       <c r="M3" t="n">
-        <v>10.02953627197213</v>
+        <v>10.01315680846149</v>
       </c>
       <c r="N3" t="n">
-        <v>151.0267187659808</v>
+        <v>150.2359516234316</v>
       </c>
       <c r="O3" t="n">
-        <v>12.28929285052565</v>
+        <v>12.2570776135028</v>
       </c>
       <c r="P3" t="n">
-        <v>347.1574163825601</v>
+        <v>346.8636519649717</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -22370,28 +22779,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1720749436709896</v>
+        <v>0.1822928665056424</v>
       </c>
       <c r="J4" t="n">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K4" t="n">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01077927895155395</v>
+        <v>0.01242955739631735</v>
       </c>
       <c r="M4" t="n">
-        <v>9.500882302629767</v>
+        <v>9.460788446529603</v>
       </c>
       <c r="N4" t="n">
-        <v>143.4771489566531</v>
+        <v>142.116977969257</v>
       </c>
       <c r="O4" t="n">
-        <v>11.97819472861637</v>
+        <v>11.9212825639382</v>
       </c>
       <c r="P4" t="n">
-        <v>344.8109603813812</v>
+        <v>344.7115191458925</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -22447,28 +22856,28 @@
         <v>0.0994</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3158466801672006</v>
+        <v>0.3273635705129896</v>
       </c>
       <c r="J5" t="n">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K5" t="n">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04221441244261837</v>
+        <v>0.04666362744429531</v>
       </c>
       <c r="M5" t="n">
-        <v>8.65696556830366</v>
+        <v>8.601769885840378</v>
       </c>
       <c r="N5" t="n">
-        <v>120.387794918784</v>
+        <v>118.9744899324402</v>
       </c>
       <c r="O5" t="n">
-        <v>10.9721372083466</v>
+        <v>10.90754279993621</v>
       </c>
       <c r="P5" t="n">
-        <v>334.5863233140968</v>
+        <v>334.4763227924905</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -22524,28 +22933,28 @@
         <v>0.0801</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4116838475599125</v>
+        <v>0.4261011807870992</v>
       </c>
       <c r="J6" t="n">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K6" t="n">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08191579294081508</v>
+        <v>0.08971915085337712</v>
       </c>
       <c r="M6" t="n">
-        <v>7.847749682229935</v>
+        <v>7.833055140603304</v>
       </c>
       <c r="N6" t="n">
-        <v>101.5459693458716</v>
+        <v>100.774989647773</v>
       </c>
       <c r="O6" t="n">
-        <v>10.07700200187891</v>
+        <v>10.03867469578395</v>
       </c>
       <c r="P6" t="n">
-        <v>322.4054387921618</v>
+        <v>322.2670664550759</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -22601,28 +23010,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3611191311254515</v>
+        <v>0.3700561627497875</v>
       </c>
       <c r="J7" t="n">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K7" t="n">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06944596147139181</v>
+        <v>0.07434655571138205</v>
       </c>
       <c r="M7" t="n">
-        <v>7.775549566306177</v>
+        <v>7.784334427347712</v>
       </c>
       <c r="N7" t="n">
-        <v>93.34896456762772</v>
+        <v>93.20789937990359</v>
       </c>
       <c r="O7" t="n">
-        <v>9.661726790156495</v>
+        <v>9.654423824335847</v>
       </c>
       <c r="P7" t="n">
-        <v>317.6842038315834</v>
+        <v>317.5982751284961</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -22678,28 +23087,28 @@
         <v>0.0553</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09657126151854011</v>
+        <v>0.07363334112275947</v>
       </c>
       <c r="J8" t="n">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K8" t="n">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004882117294174981</v>
+        <v>0.002902903361008624</v>
       </c>
       <c r="M8" t="n">
-        <v>7.709787757830139</v>
+        <v>7.743722021159536</v>
       </c>
       <c r="N8" t="n">
-        <v>99.50882772810637</v>
+        <v>100.0065880466715</v>
       </c>
       <c r="O8" t="n">
-        <v>9.975411155842469</v>
+        <v>10.00032939690846</v>
       </c>
       <c r="P8" t="n">
-        <v>310.676095952208</v>
+        <v>310.8955465696134</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -22736,7 +23145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I517"/>
+  <dimension ref="A1:I526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43799,6 +44208,413 @@
         </is>
       </c>
     </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>-36.953237066481556,175.8416553309471</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>-36.95395657114519,175.84169203838832</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>-36.95468676834456,175.84174910223055</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>-36.95538965750639,175.8420433185046</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>-36.956091177767625,175.84237064422715</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>-36.95674555075808,175.8428629641662</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>-36.95740604321405,175.84337754813677</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>-36.95323973969897,175.8416115371253</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>-36.95394621265614,175.84177622820445</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>-36.954655897383546,175.84187136584214</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>-36.955360308603844,175.84211770082163</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>-36.956044147815966,175.84246130978352</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>-36.956730843215645,175.84288400629677</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>-36.95736420351527,175.84342614367938</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 21:59:59+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>-36.95322334340928,175.84188014414121</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>-36.953938066772004,175.84184243446387</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>-36.95463363164967,175.84195954831674</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>-36.95535283724443,175.8421366363241</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>-36.95600841953811,175.842530187521</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>-36.956640750342366,175.8430129021894</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>-36.95728414797867,175.84351912555402</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>-36.953246489463574,175.8415009583286</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>-36.95395609054249,175.8416959445535</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>-36.95469707665931,175.84170827629572</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>-36.95539758587529,175.84202322469312</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>-36.95610379963725,175.84234631141985</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>-36.95678963696006,175.84279988981004</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>-36.957478257833124,175.84329367287063</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>-36.95322876437697,175.8417913379688</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>-36.95394824068036,175.84175974524302</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>-36.95465824920361,175.8418620515427</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>-36.95535446663689,175.84213250677337</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>-36.95603183326422,175.84248505005513</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>-36.95667665918002,175.8429615274666</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>-36.957321177790575,175.84347611667812</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>-36.95324710121049,175.84149093623012</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>-36.95395624068593,175.8416947242418</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>-36.954692066675875,175.84172811827253</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>-36.955398102510756,175.8420219153218</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>-36.95610312209373,175.8423476176084</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>-36.95679800095732,175.84278792338284</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>-36.95745190213892,175.84332428429994</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>-36.95322541100543,175.8418462729568</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>-36.95394383764509,175.8417955313099</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>-36.954646066587785,175.84191030032073</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>-36.955340040547746,175.8421690683992</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>-36.95602947233432,175.8424896015073</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>-36.956672195035935,175.84296791431544</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>-36.95736242450405,175.8434282099454</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-15 21:59:56+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr"/>
+      <c r="C525" t="inlineStr"/>
+      <c r="D525" t="inlineStr"/>
+      <c r="E525" t="inlineStr"/>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>-36.956010074984064,175.84252699611991</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>-36.95666262966193,175.84298159948742</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>-36.957301938103576,175.843498462932</t>
+        </is>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-31 21:59:55+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>-36.95322898373426,175.84178774443947</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>-36.9539719288134,175.84156721623717</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>-36.95467696462002,175.84178792968206</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>-36.95541213114517,175.84198636084722</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>-36.956076299741504,175.8423993264963</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>-36.95674609227953,175.84286218940937</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>-36.957430685799906,175.84334892648525</t>
+        </is>
+      </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0185/nzd0185.xlsx
+++ b/data/nzd0185/nzd0185.xlsx
@@ -22470,7 +22470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22561,35 +22561,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -22648,27 +22653,28 @@
       <c r="P2" t="n">
         <v>358.7916132170394</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.83764531925124 -36.953481773909644, 175.84794165626965 -36.952853173993404)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.8376453192512</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.95348177390964</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.8479416562697</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.9528531739934</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.8427934877604</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.95316747395152</v>
       </c>
     </row>
@@ -22725,27 +22731,28 @@
       <c r="P3" t="n">
         <v>346.8636519649717</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.83773029320187 -36.95444394341093, 175.84793692392245 -36.95318804861758)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.8377302932019</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.95444394341093</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.8479369239224</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.95318804861758</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.8428336085622</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.95381599601426</v>
       </c>
     </row>
@@ -22802,27 +22809,28 @@
       <c r="P4" t="n">
         <v>344.7115191458925</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.83805366473368 -36.95561977789733, 175.84790262779416 -36.95313284856714)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.8380536647337</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.95561977789733</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.8479026277942</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.95313284856714</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.8429781462639</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.95437631323223</v>
       </c>
     </row>
@@ -22879,27 +22887,28 @@
       <c r="P5" t="n">
         <v>334.4763227924905</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.83859774551325 -36.95674909693655, 175.84786196982188 -36.953093597353266)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.8385977455133</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.95674909693655</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.8478619698219</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.95309359735327</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.8432298576676</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.9549213471449</v>
       </c>
     </row>
@@ -22956,27 +22965,28 @@
       <c r="P6" t="n">
         <v>322.2670664550759</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.8392701850505 -36.95769937025509, 175.84793889580888 -36.953202589092356)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.8392701850505</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.95769937025509</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.8479388958089</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.95320258909236</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.8436045404297</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.95545097967373</v>
       </c>
     </row>
@@ -23033,27 +23043,28 @@
       <c r="P7" t="n">
         <v>317.5982751284961</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.8401183675264 -36.95866382726922, 175.84790040474076 -36.95322433635776)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.8401183675264</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.95866382726922</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.8479004047408</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.95322433635776</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.8440093861336</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.95594408181349</v>
       </c>
     </row>
@@ -23110,27 +23121,28 @@
       <c r="P8" t="n">
         <v>310.8955465696134</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.8410552315748 -36.959405432811906, 175.84809055136785 -36.953347954540504)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.8410552315748</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.95940543281191</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.8480905513678</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.9533479545405</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.8445728914713</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.95637669367621</v>
       </c>
     </row>

--- a/data/nzd0185/nzd0185.xlsx
+++ b/data/nzd0185/nzd0185.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I526"/>
+  <dimension ref="A1:I531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16175,6 +16175,151 @@
       <c r="I526" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="inlineStr"/>
+      <c r="E527" t="inlineStr"/>
+      <c r="F527" t="inlineStr"/>
+      <c r="G527" t="n">
+        <v>364.8592307692308</v>
+      </c>
+      <c r="H527" t="inlineStr"/>
+      <c r="I527" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>361.6488888888889</v>
+      </c>
+      <c r="C528" t="n">
+        <v>360.978947368421</v>
+      </c>
+      <c r="D528" t="n">
+        <v>350.3366666666667</v>
+      </c>
+      <c r="E528" t="n">
+        <v>347.815</v>
+      </c>
+      <c r="F528" t="n">
+        <v>332.6642857142857</v>
+      </c>
+      <c r="G528" t="n">
+        <v>329.2015384615385</v>
+      </c>
+      <c r="H528" t="n">
+        <v>310.07</v>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>380.2688888888889</v>
+      </c>
+      <c r="C529" t="n">
+        <v>364.7052631578948</v>
+      </c>
+      <c r="D529" t="n">
+        <v>360.3266666666667</v>
+      </c>
+      <c r="E529" t="n">
+        <v>356.59</v>
+      </c>
+      <c r="F529" t="n">
+        <v>343.6857142857143</v>
+      </c>
+      <c r="G529" t="n">
+        <v>346.4930769230769</v>
+      </c>
+      <c r="H529" t="n">
+        <v>325.45</v>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>362.8288888888889</v>
+      </c>
+      <c r="C530" t="n">
+        <v>344.0731578947368</v>
+      </c>
+      <c r="D530" t="n">
+        <v>345.9666666666667</v>
+      </c>
+      <c r="E530" t="n">
+        <v>336.735</v>
+      </c>
+      <c r="F530" t="n">
+        <v>332.5485714285714</v>
+      </c>
+      <c r="G530" t="n">
+        <v>322.4092307692308</v>
+      </c>
+      <c r="H530" t="n">
+        <v>309.46</v>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 21:59:43+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>344.5588888888889</v>
+      </c>
+      <c r="C531" t="n">
+        <v>365.9357894736842</v>
+      </c>
+      <c r="D531" t="n">
+        <v>332.5666666666667</v>
+      </c>
+      <c r="E531" t="inlineStr"/>
+      <c r="F531" t="inlineStr"/>
+      <c r="G531" t="inlineStr"/>
+      <c r="H531" t="inlineStr"/>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -16189,7 +16334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B626"/>
+  <dimension ref="A1:B630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22457,6 +22602,46 @@
       </c>
       <c r="B626" t="n">
         <v>-0.47</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>
@@ -22630,28 +22815,28 @@
         <v>0.0527</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1367730865029934</v>
+        <v>-0.1240255069389076</v>
       </c>
       <c r="J2" t="n">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K2" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006459611008670207</v>
+        <v>0.005352000094907328</v>
       </c>
       <c r="M2" t="n">
-        <v>9.878118857400386</v>
+        <v>9.905764722330437</v>
       </c>
       <c r="N2" t="n">
-        <v>156.7470305109158</v>
+        <v>157.2364593065344</v>
       </c>
       <c r="O2" t="n">
-        <v>12.5198654350163</v>
+        <v>12.53939628955615</v>
       </c>
       <c r="P2" t="n">
-        <v>358.7916132170394</v>
+        <v>358.666756218872</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22708,28 +22893,28 @@
         <v>0.1185</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2339188974500502</v>
+        <v>0.2456579383905317</v>
       </c>
       <c r="J3" t="n">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K3" t="n">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01988757366394844</v>
+        <v>0.02217676954561376</v>
       </c>
       <c r="M3" t="n">
-        <v>10.01315680846149</v>
+        <v>10.01500073272966</v>
       </c>
       <c r="N3" t="n">
-        <v>150.2359516234316</v>
+        <v>149.8567690617967</v>
       </c>
       <c r="O3" t="n">
-        <v>12.2570776135028</v>
+        <v>12.24159993880688</v>
       </c>
       <c r="P3" t="n">
-        <v>346.8636519649717</v>
+        <v>346.7517736894028</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22786,28 +22971,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1822928665056424</v>
+        <v>0.1785355379753652</v>
       </c>
       <c r="J4" t="n">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K4" t="n">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01242955739631735</v>
+        <v>0.0120728426394201</v>
       </c>
       <c r="M4" t="n">
-        <v>9.460788446529603</v>
+        <v>9.447126767607847</v>
       </c>
       <c r="N4" t="n">
-        <v>142.116977969257</v>
+        <v>141.7550703916059</v>
       </c>
       <c r="O4" t="n">
-        <v>11.9212825639382</v>
+        <v>11.90609383431888</v>
       </c>
       <c r="P4" t="n">
-        <v>344.7115191458925</v>
+        <v>344.7488557025276</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22864,28 +23049,28 @@
         <v>0.0994</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3273635705129896</v>
+        <v>0.3333424417040151</v>
       </c>
       <c r="J5" t="n">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K5" t="n">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04666362744429531</v>
+        <v>0.04877047365641052</v>
       </c>
       <c r="M5" t="n">
-        <v>8.601769885840378</v>
+        <v>8.598675699295278</v>
       </c>
       <c r="N5" t="n">
-        <v>118.9744899324402</v>
+        <v>118.7162197576286</v>
       </c>
       <c r="O5" t="n">
-        <v>10.90754279993621</v>
+        <v>10.89569730479094</v>
       </c>
       <c r="P5" t="n">
-        <v>334.4763227924905</v>
+        <v>334.4185082918212</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22942,28 +23127,28 @@
         <v>0.0801</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4261011807870992</v>
+        <v>0.4305276544657044</v>
       </c>
       <c r="J6" t="n">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K6" t="n">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08971915085337712</v>
+        <v>0.09244061084358268</v>
       </c>
       <c r="M6" t="n">
-        <v>7.833055140603304</v>
+        <v>7.803538420068985</v>
       </c>
       <c r="N6" t="n">
-        <v>100.774989647773</v>
+        <v>100.3107410568639</v>
       </c>
       <c r="O6" t="n">
-        <v>10.03867469578395</v>
+        <v>10.01552500155952</v>
       </c>
       <c r="P6" t="n">
-        <v>322.2670664550759</v>
+        <v>322.2241027971837</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23020,28 +23205,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3700561627497875</v>
+        <v>0.3954004850485988</v>
       </c>
       <c r="J7" t="n">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K7" t="n">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07434655571138205</v>
+        <v>0.0819242113455676</v>
       </c>
       <c r="M7" t="n">
-        <v>7.784334427347712</v>
+        <v>7.875804982696518</v>
       </c>
       <c r="N7" t="n">
-        <v>93.20789937990359</v>
+        <v>96.73812991856676</v>
       </c>
       <c r="O7" t="n">
-        <v>9.654423824335847</v>
+        <v>9.835554377795223</v>
       </c>
       <c r="P7" t="n">
-        <v>317.5982751284961</v>
+        <v>317.3524569495194</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23098,28 +23283,28 @@
         <v>0.0553</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07363334112275947</v>
+        <v>0.07677782066064186</v>
       </c>
       <c r="J8" t="n">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K8" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002902903361008624</v>
+        <v>0.003190914600182171</v>
       </c>
       <c r="M8" t="n">
-        <v>7.743722021159536</v>
+        <v>7.733180265694829</v>
       </c>
       <c r="N8" t="n">
-        <v>100.0065880466715</v>
+        <v>99.71841263245048</v>
       </c>
       <c r="O8" t="n">
-        <v>10.00032939690846</v>
+        <v>9.985910706212552</v>
       </c>
       <c r="P8" t="n">
-        <v>310.8955465696134</v>
+        <v>310.8651519415429</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23157,7 +23342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I526"/>
+  <dimension ref="A1:I531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44627,6 +44812,201 @@
         </is>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="inlineStr"/>
+      <c r="E527" t="inlineStr"/>
+      <c r="F527" t="inlineStr"/>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>-36.95650542876691,175.84320650587472</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr"/>
+      <c r="I527" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>-36.953234796283475,175.84169252211962</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>-36.95395129384757,175.8417349302974</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>-36.954672792626894,175.8418044527579</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>-36.95536688578219,175.842101031533</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>-36.95607284915613,175.84240597862657</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>-36.95671637230112,175.84290470987023</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>-36.95736242450405,175.8434282099454</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>-36.95322207658445,175.84190089707937</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>-36.95394620762738,175.8417762690761</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>-36.95464578725243,175.84191140661648</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>-36.955332012802025,175.8421894139809</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>-36.95601895990786,175.84250986758533</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>-36.95661407922315,175.8430510604712</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>-36.957261086700804,175.84354591042015</t>
+        </is>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>-36.95323399021236,175.84170572740985</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>-36.95397436916067,175.84154738178293</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>-36.95468460575933,175.84175766711047</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>-36.95541091903976,175.84198943283494</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>-36.95607341494039,175.8424048878927</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>-36.95675655410905,175.84284722162627</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>-36.95736644375157,175.84342354171466</t>
+        </is>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 21:59:43+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>-36.953246470488786,175.84150126918772</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>-36.95394452802218,175.84178992021376</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>-36.9547208289831,175.84161420530285</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr"/>
+      <c r="F531" t="inlineStr"/>
+      <c r="G531" t="inlineStr"/>
+      <c r="H531" t="inlineStr"/>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0185/nzd0185.xlsx
+++ b/data/nzd0185/nzd0185.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I531"/>
+  <dimension ref="A1:I532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16320,6 +16320,39 @@
       <c r="I531" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>354.0911111111111</v>
+      </c>
+      <c r="C532" t="n">
+        <v>341.7384210526316</v>
+      </c>
+      <c r="D532" t="n">
+        <v>342.7833333333333</v>
+      </c>
+      <c r="E532" t="n">
+        <v>337.87</v>
+      </c>
+      <c r="F532" t="n">
+        <v>328.3314285714285</v>
+      </c>
+      <c r="G532" t="n">
+        <v>330.4730769230769</v>
+      </c>
+      <c r="H532" t="n">
+        <v>321.69</v>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -16334,7 +16367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B630"/>
+  <dimension ref="A1:B631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22642,6 +22675,16 @@
       </c>
       <c r="B630" t="n">
         <v>0.22</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -22815,28 +22858,28 @@
         <v>0.0527</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1240255069389076</v>
+        <v>-0.1246657799115979</v>
       </c>
       <c r="J2" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K2" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005352000094907328</v>
+        <v>0.005432950532406777</v>
       </c>
       <c r="M2" t="n">
-        <v>9.905764722330437</v>
+        <v>9.885021704247023</v>
       </c>
       <c r="N2" t="n">
-        <v>157.2364593065344</v>
+        <v>156.8622495238116</v>
       </c>
       <c r="O2" t="n">
-        <v>12.53939628955615</v>
+        <v>12.52446603747288</v>
       </c>
       <c r="P2" t="n">
-        <v>358.666756218872</v>
+        <v>358.6730832196153</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22893,28 +22936,28 @@
         <v>0.1185</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2456579383905317</v>
+        <v>0.2401862851481914</v>
       </c>
       <c r="J3" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K3" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02217676954561376</v>
+        <v>0.02128514376754009</v>
       </c>
       <c r="M3" t="n">
-        <v>10.01500073272966</v>
+        <v>10.01927189499127</v>
       </c>
       <c r="N3" t="n">
-        <v>149.8567690617967</v>
+        <v>149.7985971378572</v>
       </c>
       <c r="O3" t="n">
-        <v>12.24159993880688</v>
+        <v>12.23922371467477</v>
       </c>
       <c r="P3" t="n">
-        <v>346.7517736894028</v>
+        <v>346.8042907479681</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22971,28 +23014,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1785355379753652</v>
+        <v>0.1755757873468489</v>
       </c>
       <c r="J4" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K4" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0120728426394201</v>
+        <v>0.01172759861454464</v>
       </c>
       <c r="M4" t="n">
-        <v>9.447126767607847</v>
+        <v>9.440052094475927</v>
       </c>
       <c r="N4" t="n">
-        <v>141.7550703916059</v>
+        <v>141.522009124129</v>
       </c>
       <c r="O4" t="n">
-        <v>11.90609383431888</v>
+        <v>11.89630232988928</v>
       </c>
       <c r="P4" t="n">
-        <v>344.7488557025276</v>
+        <v>344.7782571462844</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23049,28 +23092,28 @@
         <v>0.0994</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3333424417040151</v>
+        <v>0.3309214056253508</v>
       </c>
       <c r="J5" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K5" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04877047365641052</v>
+        <v>0.04831047526984833</v>
       </c>
       <c r="M5" t="n">
-        <v>8.598675699295278</v>
+        <v>8.590275316660446</v>
       </c>
       <c r="N5" t="n">
-        <v>118.7162197576286</v>
+        <v>118.4904808700197</v>
       </c>
       <c r="O5" t="n">
-        <v>10.89569730479094</v>
+        <v>10.88533329163695</v>
       </c>
       <c r="P5" t="n">
-        <v>334.4185082918212</v>
+        <v>334.442130006734</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23127,28 +23170,28 @@
         <v>0.0801</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4305276544657044</v>
+        <v>0.4282234719389768</v>
       </c>
       <c r="J6" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K6" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09244061084358268</v>
+        <v>0.0919128903373968</v>
       </c>
       <c r="M6" t="n">
-        <v>7.803538420068985</v>
+        <v>7.796753471210536</v>
       </c>
       <c r="N6" t="n">
-        <v>100.3107410568639</v>
+        <v>100.125688710595</v>
       </c>
       <c r="O6" t="n">
-        <v>10.01552500155952</v>
+        <v>10.00628246206327</v>
       </c>
       <c r="P6" t="n">
-        <v>322.2241027971837</v>
+        <v>322.2466426395983</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23205,28 +23248,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3954004850485988</v>
+        <v>0.3967970397648484</v>
       </c>
       <c r="J7" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K7" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0819242113455676</v>
+        <v>0.08281658957219273</v>
       </c>
       <c r="M7" t="n">
-        <v>7.875804982696518</v>
+        <v>7.864602481720506</v>
       </c>
       <c r="N7" t="n">
-        <v>96.73812991856676</v>
+        <v>96.52381352714828</v>
       </c>
       <c r="O7" t="n">
-        <v>9.835554377795223</v>
+        <v>9.824653354045031</v>
       </c>
       <c r="P7" t="n">
-        <v>317.3524569495194</v>
+        <v>317.3387716002331</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23283,28 +23326,28 @@
         <v>0.0553</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07677782066064186</v>
+        <v>0.08098957541365323</v>
       </c>
       <c r="J8" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K8" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003190914600182171</v>
+        <v>0.003561207339832229</v>
       </c>
       <c r="M8" t="n">
-        <v>7.733180265694829</v>
+        <v>7.736015898655458</v>
       </c>
       <c r="N8" t="n">
-        <v>99.71841263245048</v>
+        <v>99.66662344195491</v>
       </c>
       <c r="O8" t="n">
-        <v>9.985910706212552</v>
+        <v>9.983317256401046</v>
       </c>
       <c r="P8" t="n">
-        <v>310.8651519415429</v>
+        <v>310.8241161304897</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23342,7 +23385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I531"/>
+  <dimension ref="A1:I532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45007,6 +45050,53 @@
         </is>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>-36.953239959050855,175.8416079435946</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>-36.95397755590307,175.84152148079778</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>-36.95469321104287,175.84172358602268</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>-36.95540640841734,175.84200086465717</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>-36.95609403462729,175.8423651366915</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>-36.95670885015463,175.84291547181897</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>-36.957285861101944,175.84351713582046</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0185/nzd0185.xlsx
+++ b/data/nzd0185/nzd0185.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I532"/>
+  <dimension ref="A1:I535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16353,6 +16353,97 @@
       <c r="I532" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-23 21:59:19+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>362.7877777777778</v>
+      </c>
+      <c r="C533" t="n">
+        <v>356.5684210526315</v>
+      </c>
+      <c r="D533" t="n">
+        <v>339.4033333333333</v>
+      </c>
+      <c r="E533" t="inlineStr"/>
+      <c r="F533" t="inlineStr"/>
+      <c r="G533" t="inlineStr"/>
+      <c r="H533" t="inlineStr"/>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>368.0322222222222</v>
+      </c>
+      <c r="C534" t="n">
+        <v>360.2468421052632</v>
+      </c>
+      <c r="D534" t="n">
+        <v>359.2366666666667</v>
+      </c>
+      <c r="E534" t="n">
+        <v>354.5</v>
+      </c>
+      <c r="F534" t="n">
+        <v>341.8228571428572</v>
+      </c>
+      <c r="G534" t="n">
+        <v>336.5561538461538</v>
+      </c>
+      <c r="H534" t="n">
+        <v>327.39</v>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>351.6055555555556</v>
+      </c>
+      <c r="C535" t="n">
+        <v>355.4478947368421</v>
+      </c>
+      <c r="D535" t="n">
+        <v>339.0666666666667</v>
+      </c>
+      <c r="E535" t="n">
+        <v>346.115</v>
+      </c>
+      <c r="F535" t="n">
+        <v>336.2742857142857</v>
+      </c>
+      <c r="G535" t="n">
+        <v>337.47</v>
+      </c>
+      <c r="H535" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -16367,7 +16458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B631"/>
+  <dimension ref="A1:B634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22685,6 +22776,36 @@
       </c>
       <c r="B631" t="n">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2025-05-23 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -22858,28 +22979,28 @@
         <v>0.0527</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1246657799115979</v>
+        <v>-0.117467580878921</v>
       </c>
       <c r="J2" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K2" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005432950532406777</v>
+        <v>0.004879166284113112</v>
       </c>
       <c r="M2" t="n">
-        <v>9.885021704247023</v>
+        <v>9.873278931860423</v>
       </c>
       <c r="N2" t="n">
-        <v>156.8622495238116</v>
+        <v>156.2731097065391</v>
       </c>
       <c r="O2" t="n">
-        <v>12.52446603747288</v>
+        <v>12.50092435408434</v>
       </c>
       <c r="P2" t="n">
-        <v>358.6730832196153</v>
+        <v>358.6018387577787</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22936,28 +23057,28 @@
         <v>0.1185</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2401862851481914</v>
+        <v>0.2465261392931936</v>
       </c>
       <c r="J3" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K3" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02128514376754009</v>
+        <v>0.02271487262217564</v>
       </c>
       <c r="M3" t="n">
-        <v>10.01927189499127</v>
+        <v>9.975396259599972</v>
       </c>
       <c r="N3" t="n">
-        <v>149.7985971378572</v>
+        <v>148.8471007906221</v>
       </c>
       <c r="O3" t="n">
-        <v>12.23922371467477</v>
+        <v>12.20029101253827</v>
       </c>
       <c r="P3" t="n">
-        <v>346.8042907479681</v>
+        <v>346.7433055546736</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23014,28 +23135,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1755757873468489</v>
+        <v>0.1710602931785665</v>
       </c>
       <c r="J4" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K4" t="n">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01172759861454464</v>
+        <v>0.01124068159162217</v>
       </c>
       <c r="M4" t="n">
-        <v>9.440052094475927</v>
+        <v>9.443546372568626</v>
       </c>
       <c r="N4" t="n">
-        <v>141.522009124129</v>
+        <v>141.23252243881</v>
       </c>
       <c r="O4" t="n">
-        <v>11.89630232988928</v>
+        <v>11.88412901473263</v>
       </c>
       <c r="P4" t="n">
-        <v>344.7782571462844</v>
+        <v>344.8232118005515</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23092,28 +23213,28 @@
         <v>0.0994</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3309214056253508</v>
+        <v>0.3378576064886208</v>
       </c>
       <c r="J5" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K5" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04831047526984833</v>
+        <v>0.05060538848686436</v>
       </c>
       <c r="M5" t="n">
-        <v>8.590275316660446</v>
+        <v>8.583640680271447</v>
       </c>
       <c r="N5" t="n">
-        <v>118.4904808700197</v>
+        <v>118.2613978809037</v>
       </c>
       <c r="O5" t="n">
-        <v>10.88533329163695</v>
+        <v>10.87480564796005</v>
       </c>
       <c r="P5" t="n">
-        <v>334.442130006734</v>
+        <v>334.3742888904235</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23170,28 +23291,28 @@
         <v>0.0801</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4282234719389768</v>
+        <v>0.4336022467107505</v>
       </c>
       <c r="J6" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K6" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0919128903373968</v>
+        <v>0.09470114593297829</v>
       </c>
       <c r="M6" t="n">
-        <v>7.796753471210536</v>
+        <v>7.786251702747744</v>
       </c>
       <c r="N6" t="n">
-        <v>100.125688710595</v>
+        <v>99.83969679729046</v>
       </c>
       <c r="O6" t="n">
-        <v>10.00628246206327</v>
+        <v>9.991981625147758</v>
       </c>
       <c r="P6" t="n">
-        <v>322.2466426395983</v>
+        <v>322.1938925545871</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23248,28 +23369,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3967970397648484</v>
+        <v>0.4055765086057487</v>
       </c>
       <c r="J7" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K7" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08281658957219273</v>
+        <v>0.08663167409179262</v>
       </c>
       <c r="M7" t="n">
-        <v>7.864602481720506</v>
+        <v>7.876273123639691</v>
       </c>
       <c r="N7" t="n">
-        <v>96.52381352714828</v>
+        <v>96.48653543894039</v>
       </c>
       <c r="O7" t="n">
-        <v>9.824653354045031</v>
+        <v>9.822756000173291</v>
       </c>
       <c r="P7" t="n">
-        <v>317.3387716002331</v>
+        <v>317.2524950902671</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23326,28 +23447,28 @@
         <v>0.0553</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08098957541365323</v>
+        <v>0.091382774096879</v>
       </c>
       <c r="J8" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K8" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003561207339832229</v>
+        <v>0.004548026850157094</v>
       </c>
       <c r="M8" t="n">
-        <v>7.736015898655458</v>
+        <v>7.752473166048453</v>
       </c>
       <c r="N8" t="n">
-        <v>99.66662344195491</v>
+        <v>99.81892043612181</v>
       </c>
       <c r="O8" t="n">
-        <v>9.983317256401046</v>
+        <v>9.99094191936485</v>
       </c>
       <c r="P8" t="n">
-        <v>310.8241161304897</v>
+        <v>310.7226023841357</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23385,7 +23506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I532"/>
+  <dimension ref="A1:I535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32665,7 +32786,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>-36.95678405792752,175.8428078717671</t>
+          <t>-36.956784057927514,175.8428078717671</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -33208,7 +33329,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>-36.957311294390195,175.84348759591953</t>
+          <t>-36.9573112943902,175.84348759591953</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -45097,6 +45218,131 @@
         </is>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-23 21:59:19+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>-36.95323401829584,175.84170526733854</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>-36.953957313959876,175.84168600105667</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>-36.954702347951375,175.84168739939264</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr"/>
+      <c r="F533" t="inlineStr"/>
+      <c r="G533" t="inlineStr"/>
+      <c r="H533" t="inlineStr"/>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>-36.95323043574014,175.84176395751288</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>-36.95395229313011,175.84172680851117</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>-36.95464873378932,175.84189973698022</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>-36.95534031873689,175.8421683633542</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>-36.95602806834932,175.84249230813998</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>-36.95667286397496,175.84296695726474</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>-36.9572483041616,175.84356075688186</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>-36.953241656937024,175.84158012792517</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>-36.95395884341008,175.84167357022548</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>-36.95470325803732,175.84168379500395</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>-36.95537364179389,175.84208390899778</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>-36.95605519807927,175.84244000682185</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>-36.95666745785516,175.84297469179637</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>-36.95729370193504,175.8435080289619</t>
+        </is>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0185/nzd0185.xlsx
+++ b/data/nzd0185/nzd0185.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I535"/>
+  <dimension ref="A1:I538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16442,6 +16442,105 @@
         <v>320.5</v>
       </c>
       <c r="I535" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>343.6344444444445</v>
+      </c>
+      <c r="C536" t="n">
+        <v>333.4247368421052</v>
+      </c>
+      <c r="D536" t="n">
+        <v>343.1333333333333</v>
+      </c>
+      <c r="E536" t="n">
+        <v>346.19</v>
+      </c>
+      <c r="F536" t="n">
+        <v>331.6</v>
+      </c>
+      <c r="G536" t="n">
+        <v>322.4953846153846</v>
+      </c>
+      <c r="H536" t="n">
+        <v>313.61</v>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>352.9333333333333</v>
+      </c>
+      <c r="C537" t="n">
+        <v>349.6084210526316</v>
+      </c>
+      <c r="D537" t="n">
+        <v>348.26</v>
+      </c>
+      <c r="E537" t="n">
+        <v>349.455</v>
+      </c>
+      <c r="F537" t="n">
+        <v>338.5957142857143</v>
+      </c>
+      <c r="G537" t="n">
+        <v>331.7561538461539</v>
+      </c>
+      <c r="H537" t="n">
+        <v>327.13</v>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>360.5155555555555</v>
+      </c>
+      <c r="C538" t="n">
+        <v>360.4731578947368</v>
+      </c>
+      <c r="D538" t="n">
+        <v>339.9566666666667</v>
+      </c>
+      <c r="E538" t="n">
+        <v>351.665</v>
+      </c>
+      <c r="F538" t="n">
+        <v>345.2628571428572</v>
+      </c>
+      <c r="G538" t="n">
+        <v>336.5407692307692</v>
+      </c>
+      <c r="H538" t="n">
+        <v>320.86</v>
+      </c>
+      <c r="I538" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16458,7 +16557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B634"/>
+  <dimension ref="A1:B638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22806,6 +22905,46 @@
       </c>
       <c r="B634" t="n">
         <v>-0.65</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2025-06-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>-0.83</v>
       </c>
     </row>
   </sheetData>
@@ -22979,28 +23118,28 @@
         <v>0.0527</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.117467580878921</v>
+        <v>-0.1217383442290826</v>
       </c>
       <c r="J2" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K2" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004879166284113112</v>
+        <v>0.005298261538559279</v>
       </c>
       <c r="M2" t="n">
-        <v>9.873278931860423</v>
+        <v>9.847740256425469</v>
       </c>
       <c r="N2" t="n">
-        <v>156.2731097065391</v>
+        <v>155.5715548525698</v>
       </c>
       <c r="O2" t="n">
-        <v>12.50092435408434</v>
+        <v>12.4728326715534</v>
       </c>
       <c r="P2" t="n">
-        <v>358.6018387577787</v>
+        <v>358.6442060279834</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23057,28 +23196,28 @@
         <v>0.1185</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2465261392931936</v>
+        <v>0.239196429140307</v>
       </c>
       <c r="J3" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K3" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02271487262217564</v>
+        <v>0.02157356120292941</v>
       </c>
       <c r="M3" t="n">
-        <v>9.975396259599972</v>
+        <v>9.978756249397779</v>
       </c>
       <c r="N3" t="n">
-        <v>148.8471007906221</v>
+        <v>148.8586355920913</v>
       </c>
       <c r="O3" t="n">
-        <v>12.20029101253827</v>
+        <v>12.20076372986918</v>
       </c>
       <c r="P3" t="n">
-        <v>346.7433055546736</v>
+        <v>346.8139324030161</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23135,28 +23274,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1710602931785665</v>
+        <v>0.1639120487236393</v>
       </c>
       <c r="J4" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K4" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01124068159162217</v>
+        <v>0.01045283255915352</v>
       </c>
       <c r="M4" t="n">
-        <v>9.443546372568626</v>
+        <v>9.414254323973642</v>
       </c>
       <c r="N4" t="n">
-        <v>141.23252243881</v>
+        <v>140.5342813375599</v>
       </c>
       <c r="O4" t="n">
-        <v>11.88412901473263</v>
+        <v>11.8547155738786</v>
       </c>
       <c r="P4" t="n">
-        <v>344.8232118005515</v>
+        <v>344.8945755678087</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23213,28 +23352,28 @@
         <v>0.0994</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3378576064886208</v>
+        <v>0.3462358775036432</v>
       </c>
       <c r="J5" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K5" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05060538848686436</v>
+        <v>0.0536482609826574</v>
       </c>
       <c r="M5" t="n">
-        <v>8.583640680271447</v>
+        <v>8.563762542264682</v>
       </c>
       <c r="N5" t="n">
-        <v>118.2613978809037</v>
+        <v>117.7035151531685</v>
       </c>
       <c r="O5" t="n">
-        <v>10.87480564796005</v>
+        <v>10.84912508699058</v>
       </c>
       <c r="P5" t="n">
-        <v>334.3742888904235</v>
+        <v>334.292150913148</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23291,28 +23430,28 @@
         <v>0.0801</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4336022467107505</v>
+        <v>0.4406266634437218</v>
       </c>
       <c r="J6" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K6" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09470114593297829</v>
+        <v>0.0984286397098505</v>
       </c>
       <c r="M6" t="n">
-        <v>7.786251702747744</v>
+        <v>7.774655633819084</v>
       </c>
       <c r="N6" t="n">
-        <v>99.83969679729046</v>
+        <v>99.53095257012336</v>
       </c>
       <c r="O6" t="n">
-        <v>9.991981625147758</v>
+        <v>9.976520063134407</v>
       </c>
       <c r="P6" t="n">
-        <v>322.1938925545871</v>
+        <v>322.1248183645412</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23369,28 +23508,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4055765086057487</v>
+        <v>0.4091008721804774</v>
       </c>
       <c r="J7" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K7" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08663167409179262</v>
+        <v>0.08894425805363393</v>
       </c>
       <c r="M7" t="n">
-        <v>7.876273123639691</v>
+        <v>7.86436016450843</v>
       </c>
       <c r="N7" t="n">
-        <v>96.48653543894039</v>
+        <v>96.08158115940053</v>
       </c>
       <c r="O7" t="n">
-        <v>9.822756000173291</v>
+        <v>9.802121258146142</v>
       </c>
       <c r="P7" t="n">
-        <v>317.2524950902671</v>
+        <v>317.2177605437906</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23447,28 +23586,28 @@
         <v>0.0553</v>
       </c>
       <c r="I8" t="n">
-        <v>0.091382774096879</v>
+        <v>0.1017255074507306</v>
       </c>
       <c r="J8" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K8" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004548026850157094</v>
+        <v>0.005681842381633717</v>
       </c>
       <c r="M8" t="n">
-        <v>7.752473166048453</v>
+        <v>7.751128680365539</v>
       </c>
       <c r="N8" t="n">
-        <v>99.81892043612181</v>
+        <v>99.71442256472022</v>
       </c>
       <c r="O8" t="n">
-        <v>9.99094191936485</v>
+        <v>9.985710919344713</v>
       </c>
       <c r="P8" t="n">
-        <v>310.7226023841357</v>
+        <v>310.621373899301</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23506,7 +23645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I535"/>
+  <dimension ref="A1:I538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45343,6 +45482,147 @@
         </is>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>-36.95324710196948,175.84149092379573</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>-36.95398890341932,175.84142925084902</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>-36.95469226491268,175.8417273331584</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>-36.955373343734614,175.8420846644038</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>-36.956078052974036,175.84239594656754</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>-36.95675604444189,175.8428479508094</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>-36.95733909968739,175.8434553009795</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>-36.95324074993112,175.84159498698884</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>-36.953966813915336,175.84160878859453</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>-36.95467840634498,175.84178221976342</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>-36.95536036821572,175.8421175497405</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>-36.956043847461096,175.84246188881463</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>-36.956701259748186,175.84292633142388</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>-36.95725001728551,175.84355876715017</t>
+        </is>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>-36.953235570474696,175.84167983907216</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>-36.95395198422183,175.84172931919997</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>-36.95470085216629,175.84169332343726</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>-36.95535158539405,175.8421398090276</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>-36.9560112484647,175.8425247338609</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>-36.95667295498709,175.84296682705374</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>-36.95729132991837,175.84351078397813</t>
+        </is>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0185/nzd0185.xlsx
+++ b/data/nzd0185/nzd0185.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I538"/>
+  <dimension ref="A1:I539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16541,6 +16541,39 @@
         <v>320.86</v>
       </c>
       <c r="I538" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 21:59:40+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>364.6477777777778</v>
+      </c>
+      <c r="C539" t="n">
+        <v>355.2973684210527</v>
+      </c>
+      <c r="D539" t="n">
+        <v>347.0933333333333</v>
+      </c>
+      <c r="E539" t="n">
+        <v>343.5</v>
+      </c>
+      <c r="F539" t="n">
+        <v>334.3514285714285</v>
+      </c>
+      <c r="G539" t="n">
+        <v>329.3915384615385</v>
+      </c>
+      <c r="H539" t="n">
+        <v>311.85</v>
+      </c>
+      <c r="I539" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16557,7 +16590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B638"/>
+  <dimension ref="A1:B640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22945,6 +22978,26 @@
       </c>
       <c r="B638" t="n">
         <v>-0.83</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>
@@ -23118,28 +23171,28 @@
         <v>0.0527</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1217383442290826</v>
+        <v>-0.1176843525897686</v>
       </c>
       <c r="J2" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K2" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005298261538559279</v>
+        <v>0.004969781484825186</v>
       </c>
       <c r="M2" t="n">
-        <v>9.847740256425469</v>
+        <v>9.84739831898891</v>
       </c>
       <c r="N2" t="n">
-        <v>155.5715548525698</v>
+        <v>155.3996718987762</v>
       </c>
       <c r="O2" t="n">
-        <v>12.4728326715534</v>
+        <v>12.46594047389832</v>
       </c>
       <c r="P2" t="n">
-        <v>358.6442060279834</v>
+        <v>358.6037803339962</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23196,28 +23249,28 @@
         <v>0.1185</v>
       </c>
       <c r="I3" t="n">
-        <v>0.239196429140307</v>
+        <v>0.2402745177204817</v>
       </c>
       <c r="J3" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K3" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02157356120292941</v>
+        <v>0.02187017554251081</v>
       </c>
       <c r="M3" t="n">
-        <v>9.978756249397779</v>
+        <v>9.959367554410575</v>
       </c>
       <c r="N3" t="n">
-        <v>148.8586355920913</v>
+        <v>148.5015352274119</v>
       </c>
       <c r="O3" t="n">
-        <v>12.20076372986918</v>
+        <v>12.18612059793485</v>
       </c>
       <c r="P3" t="n">
-        <v>346.8139324030161</v>
+        <v>346.8034908300991</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23274,28 +23327,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1639120487236393</v>
+        <v>0.1630222058644686</v>
       </c>
       <c r="J4" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K4" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01045283255915352</v>
+        <v>0.01038758681552399</v>
       </c>
       <c r="M4" t="n">
-        <v>9.414254323973642</v>
+        <v>9.397017993397622</v>
       </c>
       <c r="N4" t="n">
-        <v>140.5342813375599</v>
+        <v>140.2191769835516</v>
       </c>
       <c r="O4" t="n">
-        <v>11.8547155738786</v>
+        <v>11.84141786204471</v>
       </c>
       <c r="P4" t="n">
-        <v>344.8945755678087</v>
+        <v>344.9034939292883</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23352,28 +23405,28 @@
         <v>0.0994</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3462358775036432</v>
+        <v>0.3463627730665243</v>
       </c>
       <c r="J5" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K5" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0536482609826574</v>
+        <v>0.05394058183097172</v>
       </c>
       <c r="M5" t="n">
-        <v>8.563762542264682</v>
+        <v>8.54390859687652</v>
       </c>
       <c r="N5" t="n">
-        <v>117.7035151531685</v>
+        <v>117.4221066543395</v>
       </c>
       <c r="O5" t="n">
-        <v>10.84912508699058</v>
+        <v>10.83614814656663</v>
       </c>
       <c r="P5" t="n">
-        <v>334.292150913148</v>
+        <v>334.2909020603164</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23430,28 +23483,28 @@
         <v>0.0801</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4406266634437218</v>
+        <v>0.4410172020080169</v>
       </c>
       <c r="J6" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K6" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0984286397098505</v>
+        <v>0.09901939289223172</v>
       </c>
       <c r="M6" t="n">
-        <v>7.774655633819084</v>
+        <v>7.758068119235038</v>
       </c>
       <c r="N6" t="n">
-        <v>99.53095257012336</v>
+        <v>99.29458772464328</v>
       </c>
       <c r="O6" t="n">
-        <v>9.976520063134407</v>
+        <v>9.964666965064275</v>
       </c>
       <c r="P6" t="n">
-        <v>322.1248183645412</v>
+        <v>322.1209641001387</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23508,28 +23561,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4091008721804774</v>
+        <v>0.4098367382626537</v>
       </c>
       <c r="J7" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K7" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08894425805363393</v>
+        <v>0.0896260499943945</v>
       </c>
       <c r="M7" t="n">
-        <v>7.86436016450843</v>
+        <v>7.849605718631324</v>
       </c>
       <c r="N7" t="n">
-        <v>96.08158115940053</v>
+        <v>95.8568661443844</v>
       </c>
       <c r="O7" t="n">
-        <v>9.802121258146142</v>
+        <v>9.790651977492837</v>
       </c>
       <c r="P7" t="n">
-        <v>317.2177605437906</v>
+        <v>317.2104848291384</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23586,28 +23639,28 @@
         <v>0.0553</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1017255074507306</v>
+        <v>0.1010803618665963</v>
       </c>
       <c r="J8" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K8" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005681842381633717</v>
+        <v>0.005638514346620105</v>
       </c>
       <c r="M8" t="n">
-        <v>7.751128680365539</v>
+        <v>7.736191776457313</v>
       </c>
       <c r="N8" t="n">
-        <v>99.71442256472022</v>
+        <v>99.48596492498838</v>
       </c>
       <c r="O8" t="n">
-        <v>9.985710919344713</v>
+        <v>9.97426513207807</v>
       </c>
       <c r="P8" t="n">
-        <v>310.621373899301</v>
+        <v>310.6277123946614</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23645,7 +23698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I538"/>
+  <dimension ref="A1:I539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45623,6 +45676,53 @@
         </is>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 21:59:40+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>-36.9532327477063,175.84172608245632</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>-36.95395904886923,175.84167190032514</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>-36.95468156011743,175.8417697293155</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>-36.95538403412497,175.84205757050358</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>-36.95606459988075,175.84242188179383</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>-36.95671524830229,175.84290631797765</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>-36.957350696207115,175.84344183199283</t>
+        </is>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0185/nzd0185.xlsx
+++ b/data/nzd0185/nzd0185.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I539"/>
+  <dimension ref="A1:I543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16574,6 +16574,138 @@
         <v>311.85</v>
       </c>
       <c r="I539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>346.7877777777778</v>
+      </c>
+      <c r="C540" t="n">
+        <v>349.24</v>
+      </c>
+      <c r="D540" t="n">
+        <v>347.4633333333333</v>
+      </c>
+      <c r="E540" t="n">
+        <v>341.675</v>
+      </c>
+      <c r="F540" t="n">
+        <v>333.6757142857143</v>
+      </c>
+      <c r="G540" t="n">
+        <v>331.6669230769231</v>
+      </c>
+      <c r="H540" t="n">
+        <v>320.68</v>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>344.3566666666667</v>
+      </c>
+      <c r="C541" t="n">
+        <v>349.3405263157895</v>
+      </c>
+      <c r="D541" t="n">
+        <v>348.92</v>
+      </c>
+      <c r="E541" t="n">
+        <v>349.085</v>
+      </c>
+      <c r="F541" t="n">
+        <v>340.01</v>
+      </c>
+      <c r="G541" t="n">
+        <v>337.3007692307692</v>
+      </c>
+      <c r="H541" t="n">
+        <v>321.72</v>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>348.2944444444445</v>
+      </c>
+      <c r="C542" t="n">
+        <v>339.7547368421053</v>
+      </c>
+      <c r="D542" t="n">
+        <v>348.7933333333333</v>
+      </c>
+      <c r="E542" t="n">
+        <v>335.52</v>
+      </c>
+      <c r="F542" t="n">
+        <v>332.15</v>
+      </c>
+      <c r="G542" t="n">
+        <v>325.6153846153846</v>
+      </c>
+      <c r="H542" t="n">
+        <v>316.86</v>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>356.3833333333333</v>
+      </c>
+      <c r="C543" t="n">
+        <v>355.9852631578947</v>
+      </c>
+      <c r="D543" t="n">
+        <v>345.4</v>
+      </c>
+      <c r="E543" t="n">
+        <v>343.265</v>
+      </c>
+      <c r="F543" t="n">
+        <v>345.5657142857143</v>
+      </c>
+      <c r="G543" t="n">
+        <v>336.8415384615384</v>
+      </c>
+      <c r="H543" t="n">
+        <v>326.55</v>
+      </c>
+      <c r="I543" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16590,7 +16722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B640"/>
+  <dimension ref="A1:B645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22998,6 +23130,56 @@
       </c>
       <c r="B640" t="n">
         <v>-0.1</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2025-08-11 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>-0.75</v>
       </c>
     </row>
   </sheetData>
@@ -23171,28 +23353,28 @@
         <v>0.0527</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1176843525897686</v>
+        <v>-0.1291335926773108</v>
       </c>
       <c r="J2" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K2" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004969781484825186</v>
+        <v>0.006065436117803191</v>
       </c>
       <c r="M2" t="n">
-        <v>9.84739831898891</v>
+        <v>9.816476116312113</v>
       </c>
       <c r="N2" t="n">
-        <v>155.3996718987762</v>
+        <v>154.5301412242268</v>
       </c>
       <c r="O2" t="n">
-        <v>12.46594047389832</v>
+        <v>12.43101529337917</v>
       </c>
       <c r="P2" t="n">
-        <v>358.6037803339962</v>
+        <v>358.7182720133243</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23249,28 +23431,28 @@
         <v>0.1185</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2402745177204817</v>
+        <v>0.2321971989382559</v>
       </c>
       <c r="J3" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K3" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02187017554251081</v>
+        <v>0.02078600121758123</v>
       </c>
       <c r="M3" t="n">
-        <v>9.959367554410575</v>
+        <v>9.921540257950708</v>
       </c>
       <c r="N3" t="n">
-        <v>148.5015352274119</v>
+        <v>147.556066155154</v>
       </c>
       <c r="O3" t="n">
-        <v>12.18612059793485</v>
+        <v>12.14726578926937</v>
       </c>
       <c r="P3" t="n">
-        <v>346.8034908300991</v>
+        <v>346.8819444472363</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23327,28 +23509,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1630222058644686</v>
+        <v>0.160487494532657</v>
       </c>
       <c r="J4" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K4" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01038758681552399</v>
+        <v>0.0102517280627249</v>
       </c>
       <c r="M4" t="n">
-        <v>9.397017993397622</v>
+        <v>9.323794902222385</v>
       </c>
       <c r="N4" t="n">
-        <v>140.2191769835516</v>
+        <v>138.9734890685529</v>
       </c>
       <c r="O4" t="n">
-        <v>11.84141786204471</v>
+        <v>11.78870175500903</v>
       </c>
       <c r="P4" t="n">
-        <v>344.9034939292883</v>
+        <v>344.9289896608031</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23405,28 +23587,28 @@
         <v>0.0994</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3463627730665243</v>
+        <v>0.3448031687544073</v>
       </c>
       <c r="J5" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K5" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05394058183097172</v>
+        <v>0.05439219743066892</v>
       </c>
       <c r="M5" t="n">
-        <v>8.54390859687652</v>
+        <v>8.499078977513779</v>
       </c>
       <c r="N5" t="n">
-        <v>117.4221066543395</v>
+        <v>116.5370186093641</v>
       </c>
       <c r="O5" t="n">
-        <v>10.83614814656663</v>
+        <v>10.79523129022088</v>
       </c>
       <c r="P5" t="n">
-        <v>334.2909020603164</v>
+        <v>334.3062948992053</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23483,28 +23665,28 @@
         <v>0.0801</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4410172020080169</v>
+        <v>0.448721952802864</v>
       </c>
       <c r="J6" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K6" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09901939289223172</v>
+        <v>0.1035206139989651</v>
       </c>
       <c r="M6" t="n">
-        <v>7.758068119235038</v>
+        <v>7.731249692519287</v>
       </c>
       <c r="N6" t="n">
-        <v>99.29458772464328</v>
+        <v>98.79528606973709</v>
       </c>
       <c r="O6" t="n">
-        <v>9.964666965064275</v>
+        <v>9.939581785454411</v>
       </c>
       <c r="P6" t="n">
-        <v>322.1209641001387</v>
+        <v>322.0446235399008</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23561,28 +23743,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4098367382626537</v>
+        <v>0.4188105592502874</v>
       </c>
       <c r="J7" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K7" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0896260499943945</v>
+        <v>0.09445541258924317</v>
       </c>
       <c r="M7" t="n">
-        <v>7.849605718631324</v>
+        <v>7.835815299321141</v>
       </c>
       <c r="N7" t="n">
-        <v>95.8568661443844</v>
+        <v>95.39230347382056</v>
       </c>
       <c r="O7" t="n">
-        <v>9.790651977492837</v>
+        <v>9.766898354842265</v>
       </c>
       <c r="P7" t="n">
-        <v>317.2104848291384</v>
+        <v>317.1214492795883</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23639,28 +23821,28 @@
         <v>0.0553</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1010803618665963</v>
+        <v>0.115910431817708</v>
       </c>
       <c r="J8" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K8" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005638514346620105</v>
+        <v>0.007495820056399816</v>
       </c>
       <c r="M8" t="n">
-        <v>7.736191776457313</v>
+        <v>7.741345045451379</v>
       </c>
       <c r="N8" t="n">
-        <v>99.48596492498838</v>
+        <v>99.28135392536267</v>
       </c>
       <c r="O8" t="n">
-        <v>9.97426513207807</v>
+        <v>9.964002906731945</v>
       </c>
       <c r="P8" t="n">
-        <v>310.6277123946614</v>
+        <v>310.4815415693627</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23698,7 +23880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I539"/>
+  <dimension ref="A1:I543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45723,6 +45905,194 @@
         </is>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>-36.953244947948704,175.84152621252366</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>-36.95396731678516,175.84160470142484</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>-36.954680559921165,175.84177369057198</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>-36.95539128689575,175.8420391889497</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>-36.956067903782134,175.84241551244784</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>-36.95670178761822,175.84292557619963</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>-36.95729251592672,175.84350940647005</t>
+        </is>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>-36.953246608625264,175.84149900613323</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>-36.95396717957355,175.8416058166383</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>-36.9546766222103,175.84178928578774</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>-36.9553618386425,175.84211382307197</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>-36.95603693231341,175.84247521999467</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>-36.956668458988496,175.8429732594758</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>-36.957285663433865,175.84351736540512</t>
+        </is>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>-36.95324391875117,175.84154307352165</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>-36.95398026348031,175.8414994743005</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>-36.95467696462002,175.84178792968206</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>-36.95541574759036,175.8419771952439</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>-36.9560753637528,175.84240113092036</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>-36.95673758720675,175.84287435764756</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>-36.9573176856559,175.8434801726771</t>
+        </is>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>-36.9532383932252,175.84163359568342</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>-36.95395810993505,175.84167953165283</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>-36.95468613759059,175.8417516003206</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>-36.95538496804355,175.84205520356397</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>-36.9560097676439,175.84252758861635</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>-36.95667117570023,175.84296937267834</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>-36.957253838869505,175.8435543285176</t>
+        </is>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0185/nzd0185.xlsx
+++ b/data/nzd0185/nzd0185.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I543"/>
+  <dimension ref="A1:I545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16706,6 +16706,60 @@
         <v>326.55</v>
       </c>
       <c r="I543" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>359.1344444444445</v>
+      </c>
+      <c r="C544" t="n">
+        <v>358.588947368421</v>
+      </c>
+      <c r="D544" t="n">
+        <v>344.1733333333333</v>
+      </c>
+      <c r="E544" t="n">
+        <v>343.605</v>
+      </c>
+      <c r="F544" t="n">
+        <v>340.2057142857143</v>
+      </c>
+      <c r="G544" t="n">
+        <v>338.3453846153847</v>
+      </c>
+      <c r="H544" t="n">
+        <v>325.5</v>
+      </c>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-20 22:00:05+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr"/>
+      <c r="C545" t="inlineStr"/>
+      <c r="D545" t="inlineStr"/>
+      <c r="E545" t="inlineStr"/>
+      <c r="F545" t="inlineStr"/>
+      <c r="G545" t="n">
+        <v>308.0915384615384</v>
+      </c>
+      <c r="H545" t="inlineStr"/>
+      <c r="I545" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16722,7 +16776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B645"/>
+  <dimension ref="A1:B647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23180,6 +23234,26 @@
       </c>
       <c r="B645" t="n">
         <v>-0.75</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2025-09-20 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>-0.36</v>
       </c>
     </row>
   </sheetData>
@@ -23353,28 +23427,28 @@
         <v>0.0527</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1291335926773108</v>
+        <v>-0.1275013138657042</v>
       </c>
       <c r="J2" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K2" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006065436117803191</v>
+        <v>0.005939633764728391</v>
       </c>
       <c r="M2" t="n">
-        <v>9.816476116312113</v>
+        <v>9.802752810719799</v>
       </c>
       <c r="N2" t="n">
-        <v>154.5301412242268</v>
+        <v>154.2012121517555</v>
       </c>
       <c r="O2" t="n">
-        <v>12.43101529337917</v>
+        <v>12.41777806822764</v>
       </c>
       <c r="P2" t="n">
-        <v>358.7182720133243</v>
+        <v>358.701885659007</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23431,28 +23505,28 @@
         <v>0.1185</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2321971989382559</v>
+        <v>0.2347829239557493</v>
       </c>
       <c r="J3" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K3" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02078600121758123</v>
+        <v>0.02133312466571846</v>
       </c>
       <c r="M3" t="n">
-        <v>9.921540257950708</v>
+        <v>9.910313266826254</v>
       </c>
       <c r="N3" t="n">
-        <v>147.556066155154</v>
+        <v>147.2723570341764</v>
       </c>
       <c r="O3" t="n">
-        <v>12.14726578926937</v>
+        <v>12.13558227009221</v>
       </c>
       <c r="P3" t="n">
-        <v>346.8819444472363</v>
+        <v>346.8567323791868</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23509,28 +23583,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.160487494532657</v>
+        <v>0.1583788965670129</v>
       </c>
       <c r="J4" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K4" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0102517280627249</v>
+        <v>0.0100277575668708</v>
       </c>
       <c r="M4" t="n">
-        <v>9.323794902222385</v>
+        <v>9.313067904022132</v>
       </c>
       <c r="N4" t="n">
-        <v>138.9734890685529</v>
+        <v>138.7110339837194</v>
       </c>
       <c r="O4" t="n">
-        <v>11.78870175500903</v>
+        <v>11.77756485797125</v>
       </c>
       <c r="P4" t="n">
-        <v>344.9289896608031</v>
+        <v>344.9502620422955</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23587,28 +23661,28 @@
         <v>0.0994</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3448031687544073</v>
+        <v>0.3449642342937245</v>
       </c>
       <c r="J5" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K5" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05439219743066892</v>
+        <v>0.05469248293276607</v>
       </c>
       <c r="M5" t="n">
-        <v>8.499078977513779</v>
+        <v>8.479795821512633</v>
       </c>
       <c r="N5" t="n">
-        <v>116.5370186093641</v>
+        <v>116.2618164203526</v>
       </c>
       <c r="O5" t="n">
-        <v>10.79523129022088</v>
+        <v>10.78247728587232</v>
       </c>
       <c r="P5" t="n">
-        <v>334.3062948992053</v>
+        <v>334.3046995772168</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23665,28 +23739,28 @@
         <v>0.0801</v>
       </c>
       <c r="I6" t="n">
-        <v>0.448721952802864</v>
+        <v>0.4516229482927334</v>
       </c>
       <c r="J6" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K6" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1035206139989651</v>
+        <v>0.1050757962501707</v>
       </c>
       <c r="M6" t="n">
-        <v>7.731249692519287</v>
+        <v>7.728232985022079</v>
       </c>
       <c r="N6" t="n">
-        <v>98.79528606973709</v>
+        <v>98.66164526589094</v>
       </c>
       <c r="O6" t="n">
-        <v>9.939581785454411</v>
+        <v>9.932856853186346</v>
       </c>
       <c r="P6" t="n">
-        <v>322.0446235399008</v>
+        <v>322.0158052534394</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23743,28 +23817,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4188105592502874</v>
+        <v>0.4145646604124278</v>
       </c>
       <c r="J7" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K7" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09445541258924317</v>
+        <v>0.0924748197551426</v>
       </c>
       <c r="M7" t="n">
-        <v>7.835815299321141</v>
+        <v>7.869249400282071</v>
       </c>
       <c r="N7" t="n">
-        <v>95.39230347382056</v>
+        <v>96.13243245020467</v>
       </c>
       <c r="O7" t="n">
-        <v>9.766898354842265</v>
+        <v>9.804714807183567</v>
       </c>
       <c r="P7" t="n">
-        <v>317.1214492795883</v>
+        <v>317.1639020851013</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23821,28 +23895,28 @@
         <v>0.0553</v>
       </c>
       <c r="I8" t="n">
-        <v>0.115910431817708</v>
+        <v>0.121326934148642</v>
       </c>
       <c r="J8" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K8" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007495820056399816</v>
+        <v>0.008220022837536645</v>
       </c>
       <c r="M8" t="n">
-        <v>7.741345045451379</v>
+        <v>7.751412685941984</v>
       </c>
       <c r="N8" t="n">
-        <v>99.28135392536267</v>
+        <v>99.3829155447627</v>
       </c>
       <c r="O8" t="n">
-        <v>9.964002906731945</v>
+        <v>9.969098030652658</v>
       </c>
       <c r="P8" t="n">
-        <v>310.4815415693627</v>
+        <v>310.4279944010596</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23880,7 +23954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I543"/>
+  <dimension ref="A1:I545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46093,6 +46167,76 @@
         </is>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>-36.953236513923535,175.8416643831619</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>-36.95395455606125,175.8417084162553</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>-36.95468945355373,175.84173846750394</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>-36.955383616842184,175.84205862807235</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>-36.95603597536862,175.84247706481432</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>-36.956662279265224,175.84298210079956</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>-36.957260757253934,175.84354629306097</t>
+        </is>
+      </c>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-20 22:00:05+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr"/>
+      <c r="C545" t="inlineStr"/>
+      <c r="D545" t="inlineStr"/>
+      <c r="E545" t="inlineStr"/>
+      <c r="F545" t="inlineStr"/>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>-36.95684125436409,175.84272604037517</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr"/>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0185/nzd0185.xlsx
+++ b/data/nzd0185/nzd0185.xlsx
@@ -16776,7 +16776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B647"/>
+  <dimension ref="A1:B648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23254,6 +23254,16 @@
       </c>
       <c r="B647" t="n">
         <v>-0.36</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0185/nzd0185.xlsx
+++ b/data/nzd0185/nzd0185.xlsx
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.045</v>
+        <v>0.12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0409</v>
+        <v>0.0682</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0527</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>-0.12747242681741</v>
@@ -23506,13 +23506,13 @@
         <v>0.1671570049638418</v>
       </c>
       <c r="F3" t="n">
-        <v>0.095</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0814</v>
+        <v>0.0769</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1185</v>
+        <v>0.1468</v>
       </c>
       <c r="I3" t="n">
         <v>0.2347860362335813</v>
@@ -23584,13 +23584,13 @@
         <v>0.3323866331024409</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0521</v>
+        <v>0.1336</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07489999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>0.1583761946438884</v>
@@ -23662,13 +23662,13 @@
         <v>0.4995436380674035</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1278</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0994</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>0.3449710719828568</v>
@@ -23740,13 +23740,13 @@
         <v>0.665704812363906</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0598</v>
+        <v>0.0726</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0801</v>
+        <v>0.1272</v>
       </c>
       <c r="I6" t="n">
         <v>0.4516273372024606</v>
@@ -23818,13 +23818,13 @@
         <v>0.8328429950345416</v>
       </c>
       <c r="F7" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0589</v>
+        <v>0.0577</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.1344</v>
       </c>
       <c r="I7" t="n">
         <v>0.4145511538186299</v>
@@ -23899,10 +23899,10 @@
         <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0483</v>
+        <v>0.0399</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0553</v>
+        <v>0.0586</v>
       </c>
       <c r="I8" t="n">
         <v>0.1213269341486421</v>
